--- a/XLSX/plantillaIndicadoresTotales.xlsx
+++ b/XLSX/plantillaIndicadoresTotales.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Residencia\ActualizacionDocente\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Final\actdoc\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A553FA0-D20B-48B8-9CDE-4CF955FD3107}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970DA14A-52DA-4276-98A7-BA9D28FFB562}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0C8322C2-4061-4828-B4CE-DCAA2CEACEC9}"/>
+    <workbookView xWindow="210" yWindow="0" windowWidth="20280" windowHeight="10920" xr2:uid="{0C8322C2-4061-4828-B4CE-DCAA2CEACEC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -344,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -358,9 +358,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -418,6 +415,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,9 +429,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,7 +799,7 @@
   <dimension ref="A1:S80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,104 +822,104 @@
     <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="26" t="s">
         <v>2</v>
       </c>
@@ -969,8 +966,8 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -1055,7 +1052,6 @@
     <row r="80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="O11:Q11"/>
     <mergeCell ref="R11:S11"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="F11:J11"/>
@@ -1066,6 +1062,7 @@
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="A9:P9"/>
+    <mergeCell ref="O11:Q11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
